--- a/biology/Botanique/Louis_Royer_(négociant)/Louis_Royer_(négociant).xlsx
+++ b/biology/Botanique/Louis_Royer_(négociant)/Louis_Royer_(négociant).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Louis_Royer_(n%C3%A9gociant)</t>
+          <t>Louis_Royer_(négociant)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Royer, né en 1825 et décédé à Jarnac en 1903, est le fondateur de la maison de négoce de cognac qui porte son nom.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Louis_Royer_(n%C3%A9gociant)</t>
+          <t>Louis_Royer_(négociant)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Royer est le fils d'un tailleur de pierre. Il devient maître de chai.
-Il est protestant et franc-maçon, membre du Grand Orient de France[1].
+Il est protestant et franc-maçon, membre du Grand Orient de France.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Louis_Royer_(n%C3%A9gociant)</t>
+          <t>Louis_Royer_(négociant)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,14 @@
           <t>Cognacs Louis-Royer</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison de négoce Louis Royer a été fondée en 1853 à Jarnac par Louis Royer, qui était alors maître de chai. Il rachète en 1896 la maison Duret[2], fondée par Jules Duret[3].
-Son petit-fils André Louis Royer (1886-1964) lui succède. Il est maire radical-socialiste de Jarnac de 1938 à 1941, puis en 1944-1945 et de nouveau de 1947 à 1956[4]. Le fils de ce dernier, André Jacques Royer (1923-2011), prend ensuite la tête de la maison.
-En 1989, l'entreprise est rachetée par le groupe japonais Suntory. En 2015, Suntory revend Louis-Royer au groupe français Terroirs Distillers, propriété de la famille Picard ; en effet, l'acquisition de Beam en 2014 lui a apporté Courvoisier, maison dont le chiffre d'affaires est beaucoup plus important[5].
-La maison Louis-Royer a toujours été une maison de négoce qui ne possédait pas ses propres vignes. Pour la première fois, elle a fait en 2012 l'acquisition d'un domaine viticole, d'une superficie de 35 hectares, situé à Saint-Fort-sur-le-Né, en Grande Champagne[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison de négoce Louis Royer a été fondée en 1853 à Jarnac par Louis Royer, qui était alors maître de chai. Il rachète en 1896 la maison Duret, fondée par Jules Duret.
+Son petit-fils André Louis Royer (1886-1964) lui succède. Il est maire radical-socialiste de Jarnac de 1938 à 1941, puis en 1944-1945 et de nouveau de 1947 à 1956. Le fils de ce dernier, André Jacques Royer (1923-2011), prend ensuite la tête de la maison.
+En 1989, l'entreprise est rachetée par le groupe japonais Suntory. En 2015, Suntory revend Louis-Royer au groupe français Terroirs Distillers, propriété de la famille Picard ; en effet, l'acquisition de Beam en 2014 lui a apporté Courvoisier, maison dont le chiffre d'affaires est beaucoup plus important.
+La maison Louis-Royer a toujours été une maison de négoce qui ne possédait pas ses propres vignes. Pour la première fois, elle a fait en 2012 l'acquisition d'un domaine viticole, d'une superficie de 35 hectares, situé à Saint-Fort-sur-le-Né, en Grande Champagne.
 </t>
         </is>
       </c>
